--- a/water_quality_prediction/data/mini_sample/가평_2018.xlsx
+++ b/water_quality_prediction/data/mini_sample/가평_2018.xlsx
@@ -463,7 +463,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -614,16 +614,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="1">
-        <v>2.4508299999999998</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>2.0470000000000002</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1">
-        <v>3.8300000000000001E-3</v>
+        <v>111</v>
       </c>
       <c r="H4" s="1">
-        <v>51.108330000000002</v>
+        <v>1111</v>
       </c>
       <c r="I4" s="1">
         <v>16.350000000000001</v>
@@ -658,16 +658,16 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>2.3914200000000001</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>2.0529999999999999</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>222</v>
       </c>
       <c r="H5" s="1">
-        <v>49.491669999999999</v>
+        <v>2222</v>
       </c>
       <c r="I5" s="1">
         <v>16.191669999999998</v>
@@ -702,16 +702,16 @@
         <v>21</v>
       </c>
       <c r="E6" s="1">
-        <v>2.3909199999999999</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>2.0499999999999998</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1">
-        <v>3.5799999999999998E-3</v>
+        <v>333</v>
       </c>
       <c r="H6" s="1">
-        <v>48.741669999999999</v>
+        <v>3333</v>
       </c>
       <c r="I6" s="1">
         <v>16.100000000000001</v>
